--- a/extracteddata/tests/test.xlsx
+++ b/extracteddata/tests/test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="88">
   <si>
     <t xml:space="preserve">full_text_id</t>
   </si>
@@ -98,6 +98,18 @@
     <t xml:space="preserve">Pygmy rice rat as potential host of Castelo dos Sonhos Hantavirus.</t>
   </si>
   <si>
+    <t xml:space="preserve">ft_81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLB6UFU8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wang, Nina; Yang, Lichao; Li, Guohui; Zhang, Xu; Shao, Jianwei; Ma, Jun; Chen, Shouyi; Liu, Quan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular detection and genetic characterization of Wenzhou virus in rodents in Guangzhou, China.</t>
+  </si>
+  <si>
     <t xml:space="preserve">study_id</t>
   </si>
   <si>
@@ -137,6 +149,9 @@
     <t xml:space="preserve">study</t>
   </si>
   <si>
+    <t xml:space="preserve">site</t>
+  </si>
+  <si>
     <t xml:space="preserve">rodent_record_id</t>
   </si>
   <si>
@@ -188,6 +203,21 @@
     <t xml:space="preserve">municipality</t>
   </si>
   <si>
+    <t xml:space="preserve">Rattus norvegicus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conghua District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">residential areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">district</t>
+  </si>
+  <si>
     <t xml:space="preserve">pathogen_record_id</t>
   </si>
   <si>
@@ -224,6 +254,15 @@
     <t xml:space="preserve">ELISA</t>
   </si>
   <si>
+    <t xml:space="preserve">Arenaviridae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenzhou virus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT-PCR</t>
+  </si>
+  <si>
     <t xml:space="preserve">sequence_record_id</t>
   </si>
   <si>
@@ -246,12 +285,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pathogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rattus norvegicus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenzhou virus</t>
   </si>
   <si>
     <t xml:space="preserve">MW174777</t>
@@ -264,11 +297,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -284,12 +318,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,12 +362,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -474,10 +498,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="1:1 A3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -575,6 +599,35 @@
       </c>
       <c r="K3" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -593,64 +646,84 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="1:1 A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -669,53 +742,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="1:1 A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,22 +796,22 @@
         <v>48248</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>-13.6753</v>
@@ -749,7 +822,43 @@
       <c r="K2" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>21385</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>23.65</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>113.67</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -767,50 +876,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="1:1 A2"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -821,19 +930,19 @@
         <v>48248</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>89</v>
@@ -843,6 +952,38 @@
       </c>
       <c r="J2" s="1" t="n">
         <v>85</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>29584</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>21385</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -861,50 +1002,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,7 +1053,7 @@
         <v>1006</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>29584</v>
@@ -924,15 +1065,16 @@
         <v>81</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
